--- a/StudentData/Assessments/Unit4/4.2.3/Premium_Package_Data.xlsx
+++ b/StudentData/Assessments/Unit4/4.2.3/Premium_Package_Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_316BD63261FCC540F7FC9DCFF6798020504927C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E72998-355E-4FC7-AB7F-FF849A75CC81}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit4/4.2.3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9C820672-3F4D-4887-9B30-933B65567118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium Package Data" sheetId="1" r:id="rId1"/>
@@ -31,37 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Customer_ID</t>
   </si>
   <si>
     <t>Premium_Package</t>
   </si>
-  <si>
-    <t>hypothesized proportion</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>p-hat</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t>z-statistic</t>
-  </si>
-  <si>
-    <t>p-value (right-tailed)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -407,20 +394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,50 +415,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(B2:B151,1)/COUNT(B2:B151)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -479,52 +447,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <f>SQRT((D2*(1-D2))/D3)</f>
-        <v>3.5355339059327376E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <f>(D4-D2)/D6</f>
-        <v>2.3570226039551581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <f>1-_xlfn.NORM.S.DIST(D7,TRUE)</f>
-        <v>9.2110627270495238E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -532,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -540,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -548,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -556,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -564,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -572,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -580,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -588,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -596,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -604,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -612,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -620,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -628,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -636,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -644,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -652,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -660,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -668,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -676,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -684,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -692,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -700,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -708,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -716,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -724,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -732,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -740,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -748,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -756,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -764,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -772,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -780,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -788,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -796,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -804,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -812,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -820,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -828,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -836,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -844,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -852,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -860,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -868,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -876,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -884,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -892,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -900,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -908,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -916,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -924,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -932,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -940,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -948,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -956,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -964,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -972,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -980,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -988,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -996,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1004,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1012,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1020,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1028,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1036,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1044,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1052,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1060,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1068,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1076,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1084,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1092,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1100,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1108,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1116,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1124,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1132,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1140,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1148,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1156,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1164,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1172,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1180,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1188,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1196,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1204,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1212,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1220,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1228,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1236,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1244,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1252,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1260,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1268,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1276,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1284,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1292,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1300,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1308,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1316,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1324,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1332,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1340,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1348,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1356,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1364,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1372,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1380,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1388,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1396,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1404,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1412,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1420,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1428,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1436,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1444,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1452,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1460,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1468,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1476,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1484,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1492,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1500,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1508,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1516,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1524,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1532,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1540,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1548,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1556,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1564,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1572,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1580,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1588,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1596,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -1604,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -1612,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -1620,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -1628,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -1636,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -1644,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -1652,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -1660,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -1688,15 +1635,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1960,14 +1898,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27BCAC6B-99CB-4E16-929C-B067D67DD947}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27BCAC6B-99CB-4E16-929C-B067D67DD947}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159BEDA4-A05A-4228-951D-F1E7ED9E5A6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F7D3C3-8380-4CAD-BC1E-34881F0066A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F7D3C3-8380-4CAD-BC1E-34881F0066A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159BEDA4-A05A-4228-951D-F1E7ED9E5A6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>